--- a/ExcelTestData.xlsx
+++ b/ExcelTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Development/Automation/ExcelDataDriven/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FEBC3F1-457D-3B49-8DBE-BBAB6C068FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5290C1-2E03-FF43-990A-0E4DEDB370F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{851D741D-11BE-EA41-B3FE-62A226C38D45}"/>
   </bookViews>
@@ -446,85 +446,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B680E3B0-56DF-0C4F-8408-E0C8891BB52B}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E6" t="s">
         <v>19</v>
       </c>
     </row>

--- a/ExcelTestData.xlsx
+++ b/ExcelTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Development/Automation/ExcelDataDriven/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5290C1-2E03-FF43-990A-0E4DEDB370F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233D49D0-B713-DA43-B699-503495DFEC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{851D741D-11BE-EA41-B3FE-62A226C38D45}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>TestCases</t>
   </si>
@@ -79,9 +79,6 @@
     <t>p1</t>
   </si>
   <si>
-    <t>p2</t>
-  </si>
-  <si>
     <t>a1</t>
   </si>
   <si>
@@ -91,10 +88,10 @@
     <t>a3</t>
   </si>
   <si>
-    <t>p3</t>
-  </si>
-  <si>
     <t>d3</t>
+  </si>
+  <si>
+    <t>Data4</t>
   </si>
 </sst>
 </file>
@@ -446,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B680E3B0-56DF-0C4F-8408-E0C8891BB52B}">
-  <dimension ref="B2:E6"/>
+  <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -458,7 +455,7 @@
     <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -471,8 +468,11 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -485,36 +485,42 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
-        <v>17</v>
+      <c r="F5">
+        <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -525,7 +531,10 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
